--- a/Documentation DAY_2/APIEndpoints.xlsx
+++ b/Documentation DAY_2/APIEndpoints.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="139">
   <si>
     <t>3. API Requirements Overview</t>
   </si>
@@ -25,21 +25,6 @@
   </si>
   <si>
     <t>1. Internal APIs (Sanity CMS)</t>
-  </si>
-  <si>
-    <t>Base URL</t>
-  </si>
-  <si>
-    <t>https://my-sanity-instance.api</t>
-  </si>
-  <si>
-    <t>Authentication</t>
-  </si>
-  <si>
-    <t>API Endpoints</t>
-  </si>
-  <si>
-    <t>1. Fetch All Products</t>
   </si>
   <si>
     <t>json</t>
@@ -173,17 +158,30 @@
   </si>
   <si>
     <r>
-      <t>Using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Method</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="16"/>
         <color rgb="FF404040"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>API tokens</t>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
     </r>
     <r>
       <rPr>
@@ -192,12 +190,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t> for secure access to Sanity CMS.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Endpoint</t>
+      <t>: Fetch all available products from Sanity CMS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Response Example</t>
     </r>
     <r>
       <rPr>
@@ -206,21 +204,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/products</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Method</t>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Endpoint</t>
     </r>
     <r>
       <rPr>
@@ -238,7 +227,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>GET</t>
+      <t>/products/{id}</t>
     </r>
   </si>
   <si>
@@ -252,12 +241,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Fetch all available products from Sanity CMS.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Response Example</t>
+      <t>: Fetch details of a specific product by its ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Endpoint</t>
     </r>
     <r>
       <rPr>
@@ -266,12 +255,21 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Endpoint</t>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/orders</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Method</t>
     </r>
     <r>
       <rPr>
@@ -289,7 +287,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>/products/{id}</t>
+      <t>POST</t>
     </r>
   </si>
   <si>
@@ -303,12 +301,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Fetch details of a specific product by its ID.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Endpoint</t>
+      <t>: Create a new order in Sanity CMS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Payload</t>
     </r>
     <r>
       <rPr>
@@ -317,21 +315,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/orders</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Method</t>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Endpoint</t>
     </r>
     <r>
       <rPr>
@@ -349,7 +338,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>POST</t>
+      <t>/orders/{id}</t>
     </r>
   </si>
   <si>
@@ -363,12 +352,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Create a new order in Sanity CMS.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Payload</t>
+      <t>: Fetch details of a specific order by its ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Method</t>
     </r>
     <r>
       <rPr>
@@ -377,12 +366,21 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Endpoint</t>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PATCH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
     </r>
     <r>
       <rPr>
@@ -391,21 +389,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/orders/{id}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Description</t>
+      <t>: Update the status of an order.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Endpoint</t>
     </r>
     <r>
       <rPr>
@@ -414,12 +403,21 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Fetch details of a specific order by its ID.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Method</t>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/customers/{id}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
     </r>
     <r>
       <rPr>
@@ -428,21 +426,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>PATCH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Description</t>
+      <t>: Fetch details of a specific customer by their ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Endpoint</t>
     </r>
     <r>
       <rPr>
@@ -451,12 +440,21 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Update the status of an order.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Endpoint</t>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/riders/{id}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
     </r>
     <r>
       <rPr>
@@ -465,21 +463,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/customers/{id}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Description</t>
+      <t>: Fetch details of a specific rider by their ID.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Base URL</t>
     </r>
     <r>
       <rPr>
@@ -488,7 +477,16 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Fetch details of a specific customer by their ID.</t>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF404040"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>https://api.paymentgateway.com</t>
     </r>
   </si>
   <si>
@@ -511,7 +509,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>/riders/{id}</t>
+      <t>/process-payment</t>
     </r>
   </si>
   <si>
@@ -525,7 +523,7 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Fetch details of a specific rider by their ID.</t>
+      <t>: Process payment for an order.</t>
     </r>
   </si>
   <si>
@@ -548,7 +546,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>https://api.paymentgateway.com</t>
+      <t>https://api.shipmenttracking.com</t>
     </r>
   </si>
   <si>
@@ -571,7 +569,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>/process-payment</t>
+      <t>/track-shipment</t>
     </r>
   </si>
   <si>
@@ -585,12 +583,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Process payment for an order.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Base URL</t>
+      <t>: Fetch real-time shipment tracking information.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Internal APIs</t>
     </r>
     <r>
       <rPr>
@@ -599,21 +597,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>https://api.shipmenttracking.com</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Endpoint</t>
+      <t>: Used to interact with Sanity CMS for managing products, orders, customers, and riders.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Third-Party APIs</t>
     </r>
     <r>
       <rPr>
@@ -622,21 +611,12 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/track-shipment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Description</t>
+      <t>: Used for payment processing and shipment tracking.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Endpoints</t>
     </r>
     <r>
       <rPr>
@@ -645,48 +625,6 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>: Fetch real-time shipment tracking information.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Internal APIs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Used to interact with Sanity CMS for managing products, orders, customers, and riders.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Third-Party APIs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Used for payment processing and shipment tracking.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Endpoints</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF404040"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
       <t>: Defined for fetching products, creating orders, updating order status, processing payments, and tracking shipments.</t>
     </r>
   </si>
@@ -3604,13 +3542,97 @@
       </rPr>
       <t>"123 Main St, City, Country"</t>
     </r>
+  </si>
+  <si>
+    <t>Endpoints</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Response Example</t>
+  </si>
+  <si>
+    <t>/products</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Fetch all available products</t>
+  </si>
+  <si>
+    <t>[{ "id": "1", "name": "Margherita Pizza", "price": 10.99, "category": "Pizza" }]</t>
+  </si>
+  <si>
+    <t>/products/{id}</t>
+  </si>
+  <si>
+    <t>Fetch product by ID</t>
+  </si>
+  <si>
+    <t>{ "id": "1", "name": "Margherita Pizza", "price": 10.99, "category": "Pizza" }</t>
+  </si>
+  <si>
+    <t>/orders</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Create a new order</t>
+  </si>
+  <si>
+    <t>{ "orderId": "456", "status": "Pending", "message": "Order created successfully." }</t>
+  </si>
+  <si>
+    <t>/orders/{id}</t>
+  </si>
+  <si>
+    <t>Fetch order by ID</t>
+  </si>
+  <si>
+    <t>{ "orderId": "456", "customerId": "123", "products": [{ "productId": "1", "quantity": 2 }], "totalPrice": 25.98 }</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>Update order status</t>
+  </si>
+  <si>
+    <t>{ "orderId": "456", "status": "Out for Delivery", "message": "Order status updated successfully." }</t>
+  </si>
+  <si>
+    <t>/customers/{id}</t>
+  </si>
+  <si>
+    <t>Fetch customer by ID</t>
+  </si>
+  <si>
+    <t>{ "customerId": "123", "name": "John Doe", "contactInfo": { "phone": "+1234567890", "email": "john.doe@example.com" } }</t>
+  </si>
+  <si>
+    <t>/riders/{id}</t>
+  </si>
+  <si>
+    <t>Fetch rider by ID</t>
+  </si>
+  <si>
+    <t>{ "riderId": "789", "name": "Jane Smith", "vehicleType": "Bike", "availabilityStatus": "Available" }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3708,6 +3730,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF404040"/>
+      <name val="Var(--ds-font-family-code)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3729,12 +3756,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -3742,6 +3768,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4036,1087 +4075,1188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="25.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="41.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.5">
+    <row r="1" spans="1:4" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="25.5">
+    <row r="2" spans="1:4" ht="25.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="25.5">
+    <row r="3" spans="1:4" ht="25.5">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="25.5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="25.5">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="25.5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="25.5">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="51">
+      <c r="A8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="51">
+      <c r="A10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="63.75">
+      <c r="A11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.5">
+      <c r="A12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63.75">
+      <c r="A13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75">
+      <c r="A14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63.75">
+      <c r="A15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="84">
+      <c r="A16" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63.75">
+      <c r="A17" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="25.5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="25.5">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="25.5">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="25.5">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="25.5">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+    <row r="23" spans="1:4" ht="26.25">
+      <c r="A23" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="25.5">
-      <c r="A10" s="1" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" ht="26.25">
+      <c r="A24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.25">
+      <c r="A25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" ht="26.25">
+      <c r="A26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" ht="26.25">
+      <c r="A27" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" ht="26.25">
+      <c r="A28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" ht="26.25">
+      <c r="A29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" ht="26.25">
+      <c r="A30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" ht="26.25">
+      <c r="A31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:4" ht="26.25">
+      <c r="A32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" ht="26.25">
+      <c r="A33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" ht="26.25">
+      <c r="A34" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="25.5">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="25.5">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="25.5">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="25.5">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.5">
-      <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.5">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="25.5">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="26.25">
-      <c r="A21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" ht="26.25">
-      <c r="A22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" ht="26.25">
-      <c r="A23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" ht="26.25">
-      <c r="A24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:3" ht="26.25">
-      <c r="A25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-    </row>
-    <row r="26" spans="1:3" ht="26.25">
-      <c r="A26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3" ht="26.25">
-      <c r="A27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-    </row>
-    <row r="28" spans="1:3" ht="26.25">
-      <c r="A28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="1:3" ht="26.25">
-      <c r="A29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:3" ht="26.25">
-      <c r="A30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:3" ht="26.25">
-      <c r="A31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-    </row>
-    <row r="32" spans="1:3" ht="26.25">
-      <c r="A32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="1:3" ht="25.5">
-      <c r="A33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="25.5">
-      <c r="A34" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="25.5">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="25.5">
-      <c r="A38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" ht="26.25">
-      <c r="A39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="26.25">
-      <c r="A40" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="6"/>
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="25.5">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="25.5">
+      <c r="A40" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3" ht="26.25">
-      <c r="A41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="1:3" ht="26.25">
-      <c r="A42" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="1:3" ht="26.25">
-      <c r="A43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" ht="26.25">
-      <c r="A44" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" ht="26.25">
-      <c r="A45" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" ht="26.25">
-      <c r="A46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" ht="26.25">
-      <c r="A47" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" ht="26.25">
       <c r="A48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:2" ht="25.5">
-      <c r="A49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="25.5">
-      <c r="A50" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="25.5">
+        <v>62</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" ht="26.25">
+      <c r="A49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" ht="26.25">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="1:3" ht="25.5">
       <c r="A51" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="25.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="25.5">
       <c r="A52" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="25.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="25.5">
       <c r="A53" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="25.5">
-      <c r="A54" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="25.5">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="25.5">
+      <c r="A55" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="25.5">
+      <c r="A56" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="26.25">
+      <c r="A57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:3" ht="26.25">
+      <c r="A58" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" ht="26.25">
+      <c r="A59" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" ht="26.25">
+      <c r="A60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" ht="26.25">
+      <c r="A61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" ht="26.25">
+      <c r="A62" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" ht="26.25">
+      <c r="A63" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" ht="26.25">
+      <c r="A64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" ht="26.25">
+      <c r="A65" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="26.25">
-      <c r="A55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="10"/>
-    </row>
-    <row r="56" spans="1:2" ht="26.25">
-      <c r="A56" s="9" t="s">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2" ht="25.5">
+      <c r="A66" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="25.5">
+      <c r="A67" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="26.25">
+      <c r="A68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" ht="26.25">
+      <c r="A69" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="10"/>
-    </row>
-    <row r="57" spans="1:2" ht="26.25">
-      <c r="A57" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="10"/>
-    </row>
-    <row r="58" spans="1:2" ht="26.25">
-      <c r="A58" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="1:2" ht="26.25">
-      <c r="A59" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="10"/>
-    </row>
-    <row r="60" spans="1:2" ht="26.25">
-      <c r="A60" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="10"/>
-    </row>
-    <row r="61" spans="1:2" ht="26.25">
-      <c r="A61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:2" ht="26.25">
-      <c r="A62" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63" spans="1:2" ht="26.25">
-      <c r="A63" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="10"/>
-    </row>
-    <row r="64" spans="1:2" ht="25.5">
-      <c r="A64" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="25.5">
-      <c r="A65" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="26.25">
-      <c r="A66" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67" spans="1:2" ht="26.25">
-      <c r="A67" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68" spans="1:2" ht="26.25">
-      <c r="A68" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="1:2" ht="26.25">
-      <c r="A69" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:2" ht="26.25">
       <c r="A70" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="10"/>
-    </row>
-    <row r="71" spans="1:2" ht="25.5">
-      <c r="A71" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="25.5">
-      <c r="A72" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="1:2" ht="26.25">
+      <c r="A71" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="1:2" ht="26.25">
+      <c r="A72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" ht="25.5">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="25.5">
       <c r="A74" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="25.5">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="25.5">
-      <c r="A76" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="1:2" ht="26.25">
-      <c r="A77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="10"/>
-    </row>
-    <row r="78" spans="1:2" ht="26.25">
-      <c r="A78" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="10"/>
+      <c r="A76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="25.5">
+      <c r="A77" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="25.5">
+      <c r="A78" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" ht="26.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="1:2" ht="26.25">
+      <c r="A80" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="10"/>
-    </row>
-    <row r="80" spans="1:2" ht="26.25">
-      <c r="A80" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="1:2" ht="26.25">
-      <c r="A81" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="10"/>
+      <c r="A81" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="1:2" ht="26.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="1:2" ht="26.25">
+      <c r="A83" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="1:2" ht="26.25">
+      <c r="A84" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="1:2" ht="26.25">
+      <c r="A85" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="1:2" ht="26.25">
+      <c r="A86" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="1:2" ht="26.25">
+      <c r="A87" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="10"/>
-    </row>
-    <row r="83" spans="1:2" ht="26.25">
-      <c r="A83" s="9" t="s">
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="1:2" ht="26.25">
+      <c r="A88" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84" spans="1:2" ht="26.25">
-      <c r="A84" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="10"/>
-    </row>
-    <row r="85" spans="1:2" ht="26.25">
-      <c r="A85" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" s="10"/>
-    </row>
-    <row r="86" spans="1:2" ht="26.25">
-      <c r="A86" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" s="10"/>
-    </row>
-    <row r="87" spans="1:2" ht="26.25">
-      <c r="A87" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="10"/>
-    </row>
-    <row r="88" spans="1:2" ht="26.25">
-      <c r="A88" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="1:2" ht="26.25">
       <c r="A89" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="10"/>
-    </row>
-    <row r="90" spans="1:2" ht="25.5">
-      <c r="A90" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="25.5">
-      <c r="A91" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:2" ht="26.25">
+      <c r="A90" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="1:2" ht="26.25">
+      <c r="A91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" ht="25.5">
       <c r="A92" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="25.5">
       <c r="A93" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="25.5">
       <c r="A94" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="25.5">
-      <c r="A95" s="5" t="s">
-        <v>8</v>
+      <c r="A95" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="25.5">
-      <c r="A96" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B96" s="6"/>
+      <c r="A96" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="25.5">
-      <c r="A97" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="6"/>
+      <c r="A97" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="25.5">
-      <c r="A98" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="6"/>
+      <c r="A98" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:3" ht="25.5">
-      <c r="A99" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A99" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:3" ht="25.5">
       <c r="A100" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-    </row>
-    <row r="101" spans="1:3" ht="26.25">
-      <c r="A101" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="6"/>
-    </row>
-    <row r="102" spans="1:3" ht="26.25">
-      <c r="A102" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="6"/>
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:3" ht="25.5">
+      <c r="A101" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="25.5">
+      <c r="A102" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" spans="1:3" ht="26.25">
-      <c r="A103" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="6"/>
+      <c r="A103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="9"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:3" ht="26.25">
-      <c r="A104" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="6"/>
+      <c r="A104" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:3" ht="26.25">
       <c r="A105" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="6"/>
-    </row>
-    <row r="106" spans="1:3" ht="25.5">
-      <c r="A106" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="25.5">
-      <c r="A107" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="1:3" ht="26.25">
+      <c r="A106" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="1:3" ht="26.25">
+      <c r="A107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:3" ht="25.5">
       <c r="A108" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="25.5">
       <c r="A109" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="25.5">
       <c r="A110" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="25.5">
-      <c r="A111" s="5" t="s">
-        <v>8</v>
+      <c r="A111" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="25.5">
-      <c r="A112" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B112" s="6"/>
+      <c r="A112" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="113" spans="1:2" ht="25.5">
-      <c r="A113" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B113" s="6"/>
+      <c r="A113" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="114" spans="1:2" ht="25.5">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:2" ht="25.5">
+      <c r="A115" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="1:2" ht="25.5">
+      <c r="A116" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="1:2" ht="25.5">
+      <c r="A117" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="1:2" ht="25.5">
+      <c r="A118" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="1:2" ht="25.5">
+      <c r="A119" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="1:2" ht="25.5">
+      <c r="A120" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2" ht="25.5">
+      <c r="A121" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:2" ht="25.5">
+      <c r="A122" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:2" ht="25.5">
+      <c r="A123" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="1:2" ht="25.5">
-      <c r="A115" s="9" t="s">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:2" ht="25.5">
+      <c r="A124" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="1:2" ht="25.5">
-      <c r="A116" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="1:2" ht="25.5">
-      <c r="A117" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="1:2" ht="25.5">
-      <c r="A118" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="1:2" ht="25.5">
-      <c r="A119" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="1:2" ht="25.5">
-      <c r="A120" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="1:2" ht="25.5">
-      <c r="A121" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="1:2" ht="25.5">
-      <c r="A122" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="1:2" ht="25.5">
-      <c r="A123" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="1:2" ht="25.5">
-      <c r="A124" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" s="6"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" ht="25.5">
       <c r="A125" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:2" ht="25.5">
-      <c r="A126" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A126" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:2" ht="25.5">
-      <c r="A127" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="5"/>
     </row>
     <row r="128" spans="1:2" ht="25.5">
       <c r="A128" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="25.5">
       <c r="A129" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="25.5">
       <c r="A130" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="25.5">
-      <c r="A131" s="5" t="s">
-        <v>8</v>
+      <c r="A131" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="25.5">
-      <c r="A132" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="6"/>
+      <c r="A132" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="133" spans="1:2" ht="25.5">
-      <c r="A133" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B133" s="6"/>
+      <c r="A133" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" spans="1:2" ht="25.5">
-      <c r="A134" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B134" s="6"/>
+      <c r="A134" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:2" ht="25.5">
-      <c r="A135" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B135" s="6"/>
+      <c r="A135" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2" ht="25.5">
-      <c r="A136" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" s="6"/>
+      <c r="A136" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="1:2" ht="25.5">
-      <c r="A137" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B137" s="6"/>
+      <c r="A137" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2" ht="25.5">
-      <c r="A138" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B138" s="6"/>
+      <c r="A138" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2" ht="25.5">
-      <c r="A139" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B139" s="6"/>
+      <c r="A139" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B139" s="5"/>
     </row>
     <row r="140" spans="1:2" ht="25.5">
-      <c r="A140" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B140" s="6"/>
+      <c r="A140" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:2" ht="25.5">
-      <c r="A141" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B141" s="6"/>
+      <c r="A141" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="1:2" ht="25.5">
       <c r="A142" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
-    </row>
-    <row r="145" spans="1:2" ht="25.5">
-      <c r="A145" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="25.5">
-      <c r="A146" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="1:2" ht="25.5">
+      <c r="A143" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="1:2" ht="25.5">
+      <c r="A144" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
     </row>
     <row r="147" spans="1:2" ht="25.5">
       <c r="A147" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="25.5">
       <c r="A148" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="25.5">
       <c r="A149" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="25.5">
       <c r="A150" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="25.5">
       <c r="A151" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="25.5">
-      <c r="A152" s="5" t="s">
-        <v>8</v>
+      <c r="A152" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="25.5">
-      <c r="A153" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="6"/>
+      <c r="A153" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="154" spans="1:2" ht="25.5">
-      <c r="A154" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B154" s="6"/>
+      <c r="A154" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="155" spans="1:2" ht="25.5">
-      <c r="A155" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B155" s="6"/>
+      <c r="A155" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="1:2" ht="25.5">
-      <c r="A156" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B156" s="6"/>
+      <c r="A156" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" spans="1:2" ht="25.5">
-      <c r="A157" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B157" s="6"/>
+      <c r="A157" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:2" ht="25.5">
-      <c r="A158" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B158" s="6"/>
+      <c r="A158" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B158" s="5"/>
     </row>
     <row r="159" spans="1:2" ht="25.5">
-      <c r="A159" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B159" s="6"/>
+      <c r="A159" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B159" s="5"/>
     </row>
     <row r="160" spans="1:2" ht="25.5">
-      <c r="A160" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B160" s="6"/>
+      <c r="A160" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B160" s="5"/>
     </row>
     <row r="161" spans="1:2" ht="25.5">
-      <c r="A161" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B161" s="6"/>
+      <c r="A161" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B161" s="5"/>
     </row>
     <row r="162" spans="1:2" ht="25.5">
       <c r="A162" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B162" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="B162" s="5"/>
     </row>
     <row r="163" spans="1:2" ht="25.5">
-      <c r="A163" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A163" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" s="5"/>
     </row>
     <row r="164" spans="1:2" ht="25.5">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="26.25">
-      <c r="A165" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B165" s="10"/>
-    </row>
-    <row r="166" spans="1:2" ht="26.25">
-      <c r="A166" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B166" s="10"/>
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="1:2" ht="25.5">
+      <c r="A165" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="25.5">
+      <c r="A166" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="167" spans="1:2" ht="26.25">
-      <c r="A167" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B167" s="10"/>
+      <c r="A167" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="1:2" ht="26.25">
-      <c r="A168" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B168" s="10"/>
+      <c r="A168" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="1:2" ht="26.25">
       <c r="A169" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B169" s="10"/>
-    </row>
-    <row r="170" spans="1:2" ht="25.5">
-      <c r="A170" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="25.5">
-      <c r="A171" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170" spans="1:2" ht="26.25">
+      <c r="A170" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B170" s="9"/>
+    </row>
+    <row r="171" spans="1:2" ht="26.25">
+      <c r="A171" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" spans="1:2" ht="25.5">
       <c r="A172" s="1" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="25.5">
       <c r="A173" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="25.5">
       <c r="A174" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="25.5">
       <c r="A175" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="25.5">
-      <c r="A176" s="7" t="s">
+      <c r="A176" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="25.5">
+      <c r="A177" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="25.5">
+      <c r="A178" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="1:2" ht="25.5">
+      <c r="A179" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="1:2" ht="25.5">
+      <c r="A180" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="1:2" ht="25.5">
+      <c r="A181" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="1:2" ht="25.5">
-      <c r="A177" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B177" s="6"/>
-    </row>
-    <row r="178" spans="1:2" ht="25.5">
-      <c r="A178" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="1:2" ht="25.5">
-      <c r="A179" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="1:2" ht="25.5">
-      <c r="A180" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="25.5">
-      <c r="A181" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="26.25">
-      <c r="A182" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B182" s="10"/>
-    </row>
-    <row r="183" spans="1:2" ht="26.25">
-      <c r="A183" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B183" s="10"/>
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="1:2" ht="25.5">
+      <c r="A182" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="25.5">
+      <c r="A183" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="184" spans="1:2" ht="26.25">
-      <c r="A184" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B184" s="10"/>
+      <c r="A184" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" spans="1:2" ht="26.25">
-      <c r="A185" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B185" s="10"/>
+      <c r="A185" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" spans="1:2" ht="26.25">
-      <c r="A186" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B186" s="10"/>
+      <c r="A186" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" spans="1:2" ht="26.25">
       <c r="A187" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B187" s="10"/>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
-    </row>
-    <row r="190" spans="1:2" ht="25.5">
-      <c r="A190" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="25.5">
-      <c r="A191" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B187" s="9"/>
+    </row>
+    <row r="188" spans="1:2" ht="26.25">
+      <c r="A188" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B188" s="9"/>
+    </row>
+    <row r="189" spans="1:2" ht="26.25">
+      <c r="A189" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="9"/>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="5"/>
+      <c r="B190" s="5"/>
     </row>
     <row r="192" spans="1:2" ht="25.5">
       <c r="A192" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:1" ht="25.5">
       <c r="A193" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="25.5">
+      <c r="A194" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="25.5">
+      <c r="A195" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
